--- a/output/Total_time_range_data/青海省/西宁市_学习考察.xlsx
+++ b/output/Total_time_range_data/青海省/西宁市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,734 +436,805 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>287</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>西宁市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>贵州省黔东南州政协来我市考察学习公立医院改革</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2018-05-10</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.xining.gov.cn/zjxn/xnms/ylgg/202012/t20201217_148595.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['为加快推进贵州黔东南州公立医院综合改革，5月9日，贵州省黔东南州政协刘晓春副主席一行10人到我市就公立医院改革情况进行考察学习。 在市政协、市卫生计生委相关领导陪同下，实地考察了西宁市第一医疗集团总院，通过实地查看医疗基础设施建设、人才建设、学科建设、信息化建设、药品采购等情况，多方面、多角度了解公立医院推进情况，并召开座谈会听取了相关改革工作的介绍。 市卫生计生委就我市公立医院综合改革情况分别从突出顶层设计，高位推进医改、统筹三医联动，力促提质增效、创新突破难点，加快医联体建设等九个方面进行了详细介绍。随后，市第一医疗集团总院就医疗集团推进情况进行了介绍。贵州黔东南州政协领导就推进医改过程中急需要解决的问题，一一进行了详细了解，并提出了建议及意见。 最后，刘晓春副主席表示，西宁市公立医院综合改革工作目标准确、思路清晰、措施得当，取得了显著的成效，有很多值得学习和借鉴之处，对贵州省黔东南州推进公立医院综合改革工作具有重要参考意义。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>287</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>西宁市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>西宁市党政代表团赴京考察学习社会治理接诉即办改革工作</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-07-26</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.xining.gov.cn/xwdt/xnyw/202307/t20230726_189895.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['7月24日至25日，省委常委、市委书记王卫东，市委副书记、市长石建平带领西宁市党政代表团赴京考察，实地观摩北京市市民热线服务中心、大兴区亦庄镇、大兴区城市指挥中心、市政务服务中心，深入座谈交流，学习北京市社会治理“接诉即办”改革工作，推动西宁城市治理能力进一步提升。', '座谈会上，石建平介绍了西宁市党政代表团考察学习目的和需求。王卫东代表西宁市委市政府向北京市长期以来的大力支持表示感谢，并介绍了西宁市情和经济社会发展情况。他表示，北京“接诉即办”改革是践行以人民为中心执政理念的生动实践，是制度驱动社会治理模式的创新典型，是西宁市推进城市治理现代化学习借鉴的示范标杆。西宁将积极学习借鉴北京“接诉即办”改革实践经验，紧紧盯住化解社会矛盾这个“牛鼻子”，着力破解现实难题，深入推进城市社会治理。坚持把深化思想认识作为根本，站在坚定拥护“两个确立”、坚决做到“两个维护”的政治高度，始终践行以人民为中心的发展思想，走好新时代党的群众路线，倾心倾力回应群众诉求。坚持具体化推动工作，完善机制，优化流程，做到问题具体化、方法具体化，倒逼引领社会治理、城市管理精细化精准化。坚持抓住基层基础这个关键，研究解决基层建设过程中的问题不足，切实夯实基层基础，不断提升基层发现问题、解决问题的能力水平。', '王卫东提出，希望两地建立常态化联络沟通机制，围绕夯实基层基础、解决群众急难愁盼问题等领域，加强交流合作，帮助西宁进一步提升城市社会治理能力与水平。', '北京市委常委、统战部部长杨晋柏，市人大常委会副主任侯君舒陪同考察。杨晋柏主持召开座谈会，充分肯定西宁市经济社会发展取得的成绩，积极回应西宁的需求建议，并提出具体指导意见。他表示，北京和青海过去有坚实的合作基础，现在有良好的合作机遇。北京市将全面贯彻落实习近平总书记关于深化东西部协作和定点帮扶工作的重要指示精神，持续深化双方交流，努力开拓更广阔的合作空间，并诚挚邀请西宁参加北京党建引领“接诉即办”改革论坛，共同交流工作经验，共同探索推进城市社会治理现代化。', '期间，西宁市党政代表团还拜会了中央统战部、国家发改委、财政部，汇报衔接相关工作，积极争取给予进一步指导支持。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>287</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>西宁市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>青海省党政代表团赴西藏学习考察</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2019-04-03</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.xining.gov.cn/xwdt/szfxx/201904/t20190403_37737.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['4月1日至2日，青海省党政代表团在西藏学习考察，召开工作座谈会。西藏自治区党委书记吴英杰，青海省委书记、省人大常委会主任王建军，西藏自治区党委副书记、区人大常委会主任洛桑江村，西藏自治区党委副书记、自治区主席齐扎拉，青海省委副书记、省长刘宁，省政协主席多杰热旦参加。', '吴英杰代表西藏自治区党委政府和全区各族人民，向青海省各族人民长期以来对西藏工作的支持表示感谢。他说，长期以来，青海作为西藏的好邻居、好兄弟，为推动西藏长足发展和长治久安、维护国家安全和巩固祖国边防作出了突出贡献。党的十八大以来，在以习近平同志为核心的党中央坚强领导下，西藏全区上下始终树牢“四个意识”、坚定“四个自信”、做到“两个维护”，推动西藏在全面建成小康社会进程中迈出了更加坚实的步伐。加强西藏和青海的交流合作是深入贯彻落实习近平总书记关于治边稳藏重要论述和中央第六次西藏工作座谈会精神的需要，是强化举措推进西部大开发形成新格局的需要，是维护国家安全和社会稳定的需要，是构建国家生态安全屏障的需要，是增进各民族交往交流交融的需要。希望双方以互利共赢造福人民为目标，在促进经济发展、维护社会稳定、保护生态环境、加强民族团结等方面加强合作，为两省区各项事业共同繁荣发展作出新贡献。', '王建军代表青海省委省政府和全省各族人民，向西藏民主改革60周年表示祝贺。他说，青海与西藏有相近的地缘、山缘、水缘、路缘、文缘、人缘，构成了两地担负的共同使命。进入新时代，西藏自治区党委政府坚持以习近平新时代中国特色社会主义思想为指导，认真贯彻习近平总书记关于治边稳藏的重要论述和“加强民族团结，建设美丽西藏”的重要指示，在推进西藏长足发展和长治久安中打造了许多好的样板，西藏加强社会治理的好经验、促进民族团结的好做法、推动脱贫攻坚的好举措、保护生态环境的好理念、传承“老西藏”精神和“两路”精神的好作风，值得青海认真学习借鉴。藏青要发展，两地要携手，青海将全面贯彻落实习近平总书记治边稳藏重要战略思想，继续加大和西藏各领域合作，进一步深化维护边界稳定合作、藏青工业园合作、资源开发合作，不断开创共赢发展新局面。', '座谈中，齐扎拉、刘宁分别介绍了两省区经济社会发展情况。西藏自治区政府与青海省政府签署了有关合作备忘录。', '在西藏期间，我省党政代表团考察了拉萨市智昭产业园、大昭寺广场便民警务站、八廓街古城维稳指挥部、甲玛林卡社区、拉鲁湿地国家级自然保护区等，参观了西藏百万农奴解放主题展览。', '西藏自治区领导丁业现、庄严、姜杰、何文浩、白玛旺堆、刘江、汪海洲，青海省领导王予波、于丛乐、张光荣、王黎明分别参加上述活动。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>287</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>西宁市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>青海省党政代表团赴广东学习考察</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2018-12-03</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.xining.gov.cn/xwdt/szfxx/201812/t20181203_37327.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['12月1日至2日，青海省党政代表团在广东学习考察，分别召开了广东青海工作座谈会和青海深圳工作座谈会。中央政治局委员、广东省委书记李希，青海省委书记、省人大常委会主任王建军，广东省委副书记、省长马兴瑞，青海省委副书记、省长刘宁参加。', '李希代表广东省委、省政府对青海长期以来给予广东改革发展的大力支持表示感谢。他说，青海深入贯彻习近平新时代中国特色社会主义思想，按照习近平总书记对青海提出的“四个扎扎实实”重大要求，深入践行新发展理念，筑牢国家生态安全屏障，努力打赢脱贫攻坚战，坚定不移推进全面从严治党，推动经济社会发展取得新成效。当前广东正深入学习贯彻习近平总书记视察广东重要讲话精神，总结改革开放40周年经验和启示，深化“大学习、深调研、真落实”工作，进一步优化完善提升“1+1+9”工作部署，把习近平总书记重要指示要求一项项落到实处，以新担当新作为开创工作新局面，奋力实现“四个走在全国前列”、当好“两个重要窗口”。我们将认真学习借鉴青海的好经验好做法，结合实际取长补短，努力把广东工作做得更好。', '李希强调，要以习近平新时代中国特色社会主义思想为指导，全面深化两省交流合作，不断提升合作发展水平。一要在学习贯彻习近平新时代中国特色社会主义思想上互学互鉴，始终沿着总书记指引的道路奋勇前进，共同推动习近平新时代中国特色社会主义思想落地生根、结出丰硕成果。二要在加强生态环境保护方面互促互进，进一步推进生态工程、环境整治、节能减排、体制机制创新等方面交流合作，为建设美丽中国共同努力。三要在推动高质量发展上加强合作，继续推进产业发展、科技创新等方面的协作，共建高水平产业项目、产业园区，深化农牧业经营、旅游开发等对接合作。四要在深化改革开放上携手并进，充分发挥对外开放平台作用，拓展参与“一带一路”建设的广度和深度，共同参与粤港澳大湾区建设，推动国家重大战略落地落实。', '王建军代表青海省委省政府和全省各族人民，对广东省长期以来给予青海的大力支持表示感谢。他说，广东是改革开放的排头兵、先行地、实验区，今年是改革开放40周年，10月22日至25日，习近平总书记视察广东并发表重要讲话，提出了深化改革开放、推动高质量发展、提高发展平衡性和协调性、加强党的领导和党的建设等工作要求。我们来广东就是以实际行动落实习近平总书记重大要求，找方向、找动力、找信心，坚定不移推动青海改革开放。我们要学习广东“杀出一条血路”的气魄和胆识，学习广东“敢为天下先”的勇气和担当，学习广东高质量发展的好经验好做法。王建军说，新时代是合作共赢的时代。两地优势互补，合作潜力巨大，期望加强与广东在产业、旅游、人文等领域的交流合作，携手共创美好明天。', '在青海深圳工作座谈会上，王建军说，深圳是我国改革开放的前沿城市和重要窗口。中国特色社会主义进入新时代，改革开放再出发，走好新的长征路，我们要学习深圳推动高质量发展的经验做法，开拓创新、诚信守法、务实高效、团结奉献的深圳精神，推动改革开放的决心力度。王建军说，深圳有技术、有创意、有实力，青海有资源、有特色、有潜力，“技术+资源”“创意+特色”“实力+潜力”，必将书写两地公共服务、人才智力、产业发展、深化改革、交往交流交融等合作的崭新篇章。', '广东省委常委、深圳市委书记王伟中表示，当前，深圳正深入贯彻落实习近平新时代中国特色社会主义思想和党的十九大精神，深入学习贯彻习近平总书记视察广东重要讲话精神，高举新时代改革开放旗帜，紧抓粤港澳大湾区建设重大历史机遇，在新时代走在最前列、新征程勇当尖兵，朝着建设中国特色社会主义先行示范区的方向前行，努力创建社会主义现代化强国的城市范例。深圳将认真落实中央关于建立更加有效的区域协调发展新机制的意见，按照双方全面战略合作框架协议部署要求，充分发挥两地优势，深化科技、经贸、文化、教育、旅游、卫生等各领域合作交流，携手加快发展，实现互利共赢，为全国发展大局作出更大贡献。', '座谈中，马兴瑞、刘宁、深圳市市长陈如桂分别介绍了广东、青海、深圳的经济社会发展情况。考察中，青海省政府分别与深圳市政府、华为技术有限公司签署了战略合作框架协议和战略合作协议。', '在广东期间，我省党政代表团参观了“大潮起珠江——广东改革开放40周年展览”，考察了广州东塔金融中心、小鹏汽车科技有限公司、华为技术有限公司、比亚迪股份有限公司、柔宇科技有限公司等。', '广东省领导林少春、张硕辅，广州市市长温国辉，青海省领导王予波、于丛乐、王黎明分别参加上述活动。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>287</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>西宁市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>我市党政代表团赴南京学习考察</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2016-12-23</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://www.xining.gov.cn/zwgk/fdzdgknr/jgjj/ldxx/lddt_42/201612/t20161223_41270.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['●深入学习贯彻习近平总书记在东西部扶贫协作座谈会上重要讲话精神●南京西宁对口扶贫协作座谈会在南京召开●吴政隆王晓分别讲话', '为深入学习贯彻习近平总书记在东西部扶贫协作座谈会上重要讲话精神，落实江苏、青海省委省政府对口支援工作安排，12月20日至22日，省委常委、市委书记王晓，市委副书记、市长张晓容率西宁市党政代表团赴南京市学习考察，共商落实中央和两省对口扶贫协作工作部署的具体措施。', '12月21日，南京西宁对口扶贫协作座谈会在南京召开，江苏省委副书记、南京市委书记吴政隆主持会议并讲话，青海省委常委、西宁市委书记王晓讲话。南京市委副书记、市长缪瑞林，西宁市委副书记、市长张晓容分别介绍本市经济社会发展情况。', '吴政隆代表南京市委、市政府和全市人民对西宁市党政代表团的来访表示热烈欢迎，对西宁近年来的发展成就表示祝贺。他说，南京、西宁虽然相隔千里，但两市的交流互动由来已久，近年来合作更加紧密。打赢脱贫攻坚战是以习近平同志为核心的党中央从实现全面建成小康社会的战略高度作出的重大决策。东西部扶贫协作和对口支援，是大战略、大布局，是打赢脱贫攻坚战、实现先富帮后富、最终实现共同富裕目标的大举措。我们要坚持以习近平总书记系列重要讲话精神以及在东西部扶贫协作座谈会上的重要讲话精神为指引，认真落实青海省党政代表团来苏考察时两省达成的共识和江苏省委的部署要求，以更大的决心、更明确的思路、更精准的举措，满怀真情、满怀责任，完成好对口支援这项重要政治任务，共同打赢脱贫攻坚战，同心携手奔小康。我们将以此次交流为新起点，坚持“输血”与“造血”并重，政府力量与社会力量结合，帮扶与合作并举，在产业协作、科技及教育卫生支持、旅游开发、农副特色产品销售、劳务协作以及人才交流等方面，精准聚焦、精准施策、精准发力，使对口支援和扶贫协作扶到点上、扶到根上、扶到群众心上，让贫困群众真正得到实惠，为全面建成小康社会做出新的更大贡献。', '王晓代表西宁市委市政府和全市人民向南京市委市政府和人民群众的支持帮助表示衷心感谢。王晓说，南京是一座触及我们内心最本质、最深刻情感的城市，是一座带给我们人生极生动、极丰富启迪的城市，是一座给予我们一行很温暖、很亲切感受的城市。近年来，南京各项事业取得了令人钦佩的突出成绩，无论是从历史沿革、现实表现，还是从发展前景看，南京都是当之无愧的“排头兵”，特别是南京市“敢为人先”的“精气神”，不仅有力支撑着自身的科学发展，也深深感染着西宁。当前，西宁正坚持把“始终对党绝对忠诚，坚决与习近平总书记和党中央保持绝对一致”作为全市工作的思想方针、政治纪律、组织原则和实践标准，全力推进脱贫攻坚行动，着力打造绿色发展样板城市，建设幸福西宁。中央和江苏、青海省委省政府安排南京对口帮扶西宁，是一场“及时雨”。我们坚信，有以习近平同志为核心的党中央的坚强领导和示范引领，有两省、两市的科学统筹和高层推动，有南京西宁两地交流交融的人文基础，脱贫攻坚战一定能取得胜利。西宁将倍加珍惜南京市的无私支援，倍加努力干好工作，和南京市共同谱写扶贫协作的“双宁记”，交出一份经得起时间、历史和实践检验的脱贫答卷。', '考察期间，我市党政代表团先后考察了诺玛科南京汽车零部件公司、老门东历史文化街区、黄龙岘茶文化旅游村、江苏未来网络创新研究院、南京埃斯顿自动化股份有限公司、国家电网电力科学研究院、先声药业有限公司、苏宁控股集团股份有限公司、途牛旅游网。', '南京市领导刘以安、杨学鹏和市委市政府相关部门及栖霞区、雨花台区、六合区主要负责同志，西宁市领导马忠英、宋晨曦、管新民、陈红兵、李晓舸及市发改委、大通县、湟中县、湟源县党政主要负责同志参加上述活动。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>287</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>西宁市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>我省党政代表团赴山东学习考察</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2016-11-02</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://www.xining.gov.cn/xwdt/tttj/201611/t20161102_23727.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['10月30日至11月1日，青海省党政代表团赴山东学习考察。11月1日下午，鲁青对口支援合作座谈会在济南市举行。山东省委书记姜异康主持会议并讲话，青海省委书记王国生讲话。山东省委副书记、省长郭树清，青海省委副书记、省长郝鹏分别介绍两省经济社会发展情况。', '姜异康代表省委、省政府对青海省党政代表团表示欢迎，对青海省长期以来给予山东工作的支持和对山东援青干部的关心爱护表示感谢。', '他说，伟大的母亲河孕育了两省人民的深厚友谊，这次代表团来山东考察，充分体现了青海省委、省政府对加强与山东交流合作的高度重视，也给我们提供了一次宝贵的学习机会。近年来，青海省委、省政府深入贯彻落实习近平总书记系列重要讲话精神，在加强生态保护、推动科学发展、融入丝绸之路经济带建设等方面做了大量工作，取得了重大成就。我省援青干部在青海工作期间得到了你们的支持帮助，受到了教育，得到了锻炼。青海省的好经验、好做法，青海广大干部群众表现出来的顽强意志、创新思路和优良作风，值得我们学习和借鉴。', '姜异康指出，当前山东正在深入学习贯彻党的十八届六中全会精神，加强和规范党内政治生活，加强党内监督，不断把我省全面从严治党各项工作提高到新水平。在经济下行压力依然较大的情况下，山东紧紧围绕“五位一体”总体布局和“四个全面”战略布局，按照习近平总书记对山东提出的“走在前列”的要求，积极适应经济发展新常态，坚持新发展理念，以推进供给侧结构性改革为主线，切实抓好产业转型升级，全省经济运行继续保持在合理区间。我们将按照中央部署要求，围绕海北州产业发展、生态保护、智力支持、教育医疗事业发展等重点任务，进一步加大支持力度，健全合作机制，共同推动两省交流合作迈上新台阶。我们坚信，在以习近平同志为核心的党中央坚强领导下，通过双方的共同努力，鲁青两省交流合作一定会取得更加丰硕的成果，两省人民将会迎来更加美好的明天。', '王国生在讲话中首先代表省委省政府和全省各族人民，对山东省给予青海省的大力支持和无私帮助表示衷心的感谢。他说，山东、青海共饮黄河水，两地友谊源远流长。2010年中央第五次西藏工作座谈会以来，山东省委省政府站在党和国家事业全局的战略高度，形成长效对口帮扶机制，深入推进援青工作。6年来，山东投入援青资金近9亿元，实施83个项目，选派3批60名援青干部、431名专业技术人才从事援青工作，推动海北州经济社会发展取得了长足的进步。山东的无私帮扶使青海各族群众更加深切地感受到了祖国大家庭的无比温暖和社会主义制度的无比优越。', '王国生说， 近年来，山东树立和践行新发展理念，在产业转型升级、供给侧结构性改革、发展海洋经济、城市规划建设管理、旅游文化名省建设等方面，都走在了前列，发展前景广阔。当前，青海上下正贯彻落实党的十八届六中全会精神和习近平总书记视察青海时的重要讲话精神，以生态保护优先的理念协调推进经济社会发展，把“四个扎扎实实”重大要求落到实处。我们要认真贯彻落实东西部合作座谈会精神，用好山东援青的重要机遇，深化生态旅游、精准扶贫、特色资源开发、大数据云计算等方面的合作，特别是在打造爱国主义教育基地原子城、建设三江源国家公园、智力援青上加大合作支持力度，推动两省合作交流再上新台阶。', '座谈会上，郭树清和郝鹏分别介绍了两省经济社会发展情况和鲁青对口帮扶进展，并就更好推进对口援青工作、加强鲁青合作交流提出了建议。', '会前，鲁青两地领导亲切看望会见山东省第一、二批援青干部和第三批援青干部领队，并同大家合影留念。', '山东省领导龚正、孙伟、杨东奇、于晓明，青海省领导王予波、胡昌升、杨逢春参加上述活动。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>287</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>西宁市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>青海省党政代表团赴北京学习考察京青对口支援合作座谈会举行</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2016-11-05</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://www.xining.gov.cn/xwdt/tttj/201611/t20161105_23858.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['11月3日至4日，青海省党政代表团赴北京学习考察。4日上午，京青对口支援合作座谈会在北京市举行。中共中央政治局委员、北京市委书记郭金龙主持并作重要讲话，青海省委书记王国生讲话。北京市委副书记、代市长蔡奇，青海省委副书记、省长郝鹏分别介绍两省市经济社会发展情况。', '郭金龙对青海省近年来取得的成绩，特别是生态文明建设成效，表示由衷钦佩和高兴。他说，对口支援是国家战略，是推动边疆和民族地区发展稳定的重大举措，也是重要的民生民心工程。在我国进入全面建成小康社会决胜阶段的关键时期，中央就脱贫攻坚作出了一系列重大决策部署，为北京做好对口支援工作进一步指明了方向。', '郭金龙指出，中央交给北京市对口支援的玉树“一市五县”，都是国家级或省级贫困县。支持玉树脱贫攻坚，实现更好发展，北京责无旁贷。我们要聚焦小康、聚力脱贫，把对口支援和脱贫攻坚更紧密结合起来，在全面推进、普惠群众的基础上更加注重脱贫的导向，在绵绵用力、久久为功的基础上更加注重攻坚的力度，以更精准的举措抓好对口支援工作，更好地服务于国家大局。要把有利于受援地区精准扶贫、精准脱贫的支援项目和活动往前排，推动资金和项目进一步向农牧民、基层、贫困地区倾斜，重点抓好惠及贫困地区、贫困人口的产业发展、实用技能培训、就业增收等项目。', '郭金龙指出，对口支援不仅仅是帮助受援地区发展，也是交流合作、优势互补。京青两地互补性很强，合作潜力巨大。要完善合作机制，以合作水平的提升，巩固和拓展对口支援的成效。继续深化教育、医疗、文化、科技、旅游以及农副产品等领域务实合作，支持和推动北京的产业、人才、资金、技术向受援地区流动，在双向互动、共同发展的过程中，促进两地的资源优势转化为发展优势。积极搭建民族交往交流交融平台，使各族群众之间加深了解、增进感情，增强凝聚力、向心力。', '郭金龙说，北京是伟大祖国的首都。建设和管理好首都，是国家治理体系和治理能力现代化的重要内容。青海在转方式、调结构，特别是生态文明建设方面有很多创新举措，积累了丰富的经验。我们要认真学习借鉴青海的好思路、好做法，努力把北京的工作做得更好。', '郭金龙指出，当前和今后一个时期，我们要深入学习贯彻党的十八届六中全会精神，牢固树立“四个意识”特别是增强核心意识、看齐意识，更加紧密地团结在以习近平同志为核心的党中央周围，更加自觉地落实好党中央确定的各项决策部署，以优异成绩迎接党的十九大胜利召开。', '王国生代表省委省政府和全省各族人民对北京市长期以来给予青海的无私帮助和巨大支持表示衷心感谢。他说，北京和青海友谊源远流长，首都人民和高原人民心心相印。中央确定北京对口支援玉树藏族自治州以来，北京市委市政府坚决贯彻中央决策部署，站位高、感情深、工作实，落实援青资金14.1亿元，实施项目280多个，培训人员2万多人次，开展了一系列打基础、利长远的工作，扎实推进玉树灾后重建和对口支援，为玉树发展奠定了坚实的基础。北京援青干部克服困难、无私奉献、接力帮扶，充分发挥桥梁纽带作用，为青海和玉树的发展建设作出了重要贡献。高原各族儿女处处感受到来自首都人民的深厚感情，如今，一个崭新的社会主义新玉树已矗立在雪域高原上。玉树发展的历史性进步，充分印证了祖国大家庭的无比温暖和社会主义制度的无比优越。对北京的无私援助，青海人民将永远铭记在心。', '王国生说，每次来到首都，都能深切感受到日新月异的发展变化。近年来，北京全面贯彻党中央决策部署，深入实施创新驱动发展战略，大战略、大规划、大手笔拓展发展新格局，引领带动京津冀协同发展，实现了经济社会持续健康发展，我们由衷地感到钦佩和自豪。当前，青海正深入学习贯彻党的十八届六中全会精神和习近平总书记视察青海时重要讲话精神、银川会议精神，以生态保护优先理念协调推进经济社会发展，努力把青海打造成为美丽中国的靓丽名片。我们要认真贯彻习总书记系列重要讲话精神，用好北京援青的重要机遇，聚焦精准扶贫，加强生态保护协作，强化人才智力援青，深化多层次、宽领域交流合作，开创两省市合作双赢、共同发展的新局面。', '座谈会上，蔡奇和郝鹏分别介绍了北京、青海经济社会发展情况和对口帮扶进展，并就更好推进对口援青工作、加强京青合作交流提出建议。', '会后，两地领导亲切看望会见北京市援青干部和参与玉树灾后重建的企业代表，并同大家合影留念。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>287</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>西宁市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>陈瑞峰率市党政代表团赴武汉学习考察走高质量发展之路谱写区域合作新篇章</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2021-04-22</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.xining.gov.cn/xwdt/xnyw/202104/t20210422_154101.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['陈瑞峰率市党政代表团赴武汉学习考察 走高质量发展之路 谱写区域合作新篇章_西宁市人民政府', '为贯彻落实省委书记王建军关于精准做好与中部地区的对接、沟通、联络等工作，努力搭乘中部地区高质量发展的东风，推动青海步入高质量发展的快车道的工作要求，4月19日至21日，省委常委、市委书记陈瑞峰率市党政代表团赴武汉学习考察。湖北省委常委、武汉市委书记王忠林，武汉市委副书记、市长程用文，武汉市人大常委会主任胡立山，西宁市委副书记、市政府党组书记出席相关活动。', '在西宁—武汉合作交流座谈会上，陈瑞峰代表西宁市委、市政府和西宁人民，向武汉长期以来给予西宁的支持帮助表示衷心感谢。他说，武汉市坚持以习近平新时代中国特色社会主义思想为指导，大力弘扬伟大抗疫精神，统筹推进疫情防控和经济社会发展，城市从共克时艰到浴火重生，中国经济的强大韧性与后劲在武汉充分释放，我们对武汉这座英雄之城、活力之城、希望之城表示由衷敬佩。', '陈瑞峰表示，西宁与武汉共饮长江水、共护一江清。期待双方坚持以习近平新时代中国特色社会主义思想为指导，深入学习贯彻习近平总书记关于青海湖北两省工作的重要讲话指示批示精神，立足新发展阶段、贯彻新发展理念、融入新发展格局，以更加务实的合作共同庆祝建党100周年。加强交流交往，进一步完善合作机制，全方位交流，多领域合作，让西宁在对标先进、学习先进中开创现代美丽幸福大西宁更加美好的未来。深化务实合作，以高质量发展为主题，紧紧围绕建设世界级盐湖产业基地，打造国家清洁能源产业高地、国际生态旅游目的地、绿色有机农畜产品输出地，坚持资源共享、优势互补、产业对接、互联互通，分享希望之城的发展机遇，让西宁搭上中部地区高质量发展的顺风车。共谋高质量发展，落实好合作框架协议，夯实合作根基，深挖合作潜力，积极整合两市社会、经济、资本、人文等资源，深化产业对接、文化旅游、技术创新、劳动力转移等交流合作，共同守护好一江清水，共同谱写汉宁高质量发展区域合作新篇章。', '王忠林代表武汉市委、市政府对西宁党政代表团一行表示热烈欢迎。他说，这次西宁党政代表团来汉，既是“结对子”，也是“走亲戚”。武汉和西宁从1987年就结为友好城市，一江相连、情意绵长、交往密切。特别是在去年抗疫期间，西宁人民与武汉人民情同手足、守望相助，西宁第一时间派出援汉医疗队与武汉并肩战斗，社会各界为武汉捐款捐物，为武汉保卫战取得决定性成果作出了重要贡献，对此我们充满感激。', '王忠林说，近年来，西宁深入贯彻落实习近平总书记系列重要讲话精神，发展思路宏伟、清晰，产业加速转型升级，文化旅游全国知名，生态保护走在前列，民生事业全面发展，不少先进经验值得武汉学习。当前，武汉正深入学习贯彻习近平总书记视察湖北武汉重要讲话精神，锚定国家中心城市、长江经济带核心城市和国际化大都市总体定位，加快打造“五个中心”，努力建设现代化大武汉。立足新发展阶段、贯彻新发展理念、构建新发展格局，汉宁合作互补性强、前景广阔。希望两市以此次交流为契机，加快建立党委政府和部门互访会商机制，推动常来常往、互学互鉴;深化产业和科技创新领域交流，加大武汉经开区—西宁开发区、东湖高新区—青海高新区合作，做大做强优势产业;建立文旅产业协作机制，全面提升文化和旅游消费水平;深化两地商贸流通合作，共享资源市场，实现互利共赢;探索生态保护合作，坚持“共抓大保护、不搞大开发”，共同打造美丽宜居城市。', '座谈会上，程用文介绍了两地经济社会发展情况，签署了《西宁市人民政府—武汉市人民政府战略合作框架协议》《西宁经济技术开发区管理委员会—武汉经济技术开发区管理委员会战略合作框架协议》《青海国家高新技术产业开发区管理委员会—武汉东湖新技术开发区管理委员会战略合作框架协议》。', '4月21日，陈瑞峰率队先后拜访了融创中国董事会主席孙宏斌、卓尔控股有限公司董事长阎志、楚商联合会秘书长蹇宏。在汉期间，我市党政代表团先后学习考察了武汉市网络安全、人才储备、科技成果转换、城市灯光亮化及夜文化、文化旅游产业发展、精准脱贫、乡村振兴等方面的好经验好做法好理念，并在中共五大会址纪念馆开展党史学习教育。', '西宁市领导管新民、杨小民、张福军，武汉市领导张曙、龙良文、彭浩、江伟、刘子清、陈红辉、梁鸣，西宁(国家级)经济开发区管委会负责同志，西宁市政府秘书长，西宁市直有关部门和单位负责同志，武汉市临空港经开区管委会、武汉东湖新技术开发区管委会、武汉东湖风景区管委会负责同志，武汉市政府秘书长、副秘书长，武汉市直有关部门和单位负责同志参加有关会议和活动。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>287</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>西宁市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>新疆生产建设兵团第十师北屯市卫生健康委考察学习西宁市医联体建设工作</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2020-10-16</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.xining.gov.cn/zjxn/xnms/ylgg/202012/t20201217_148502.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['新疆生产建设兵团第十师北屯市卫生健康委考察学习西宁市医联体建设工作_西宁市人民政府', '10月14日至15日, 新疆生产建设兵团第十师北屯市卫生健康委一行10人来我市考察医联体改革工作。市卫生健康委、湟源县卫生健康局、市第一医疗集团相关负责同志陪同考察参观并座谈。', '考察组一行先后赴湟源县第一医共体总院、城关镇社区卫生服务中心、大华镇卫生院、市第一医疗集团总院、第一分院、桥头镇卫生院及向阳堡村卫生室实地考察了解县域紧密型医共体建设、县域服务能力提升、薪酬制度改革、分级诊疗、信息化建设、医保及公共卫生资金打包付费等相关改革情况。', '座谈会上，市第一医疗集团和湟源县就四级紧密型医联体及县域医共体改革基本情况、改革历程、主要做法、改革成效分别作了详细介绍。双方针对改革中遇到的难点、堵点、热点等问题进行了深入的交流和探讨。', '考察组从多层级多角度全面详细了解西宁市医联体建设情况，对落实分级诊疗、提升基层服务能力、医联体组织管理模式、运行机制等工作给予了高度评价，认为西宁市改革理念先进、措施得力、成效显著，所取得的经验成果对推动北屯市医改工作有着积极地借鉴意义。考察组表示将认真学习西宁经验，加快推进北屯市医改政策探索，努力实现医务人员受鼓舞、百姓得实惠的良好局面。双方将以此次考察为契机，加强两地紧密联系和交流学习，不断深入推进医改各项工作，共同推动医联体建设在新时期取得新成效。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>287</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>西宁市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>青海省党政代表团赴天津学习考察津青对口支援合作座谈会在天津市举行</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2016-11-03</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://www.xining.gov.cn/xwdt/tttj/201611/t20161103_23738.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['11月2日至3日，青海省党政代表团赴天津学习考察。2日上午，津青对口支援合作座谈会在天津市举行。天津市委书记李鸿忠主持会议并讲话，青海省委书记王国生讲话。天津市委副书记、代市长王东峰，青海省委副书记、省长郝鹏分别介绍两省市经济社会发展情况。', '李鸿忠代表市委、市政府和全市人民对代表团来津表示热烈欢迎。他说，天津与青海是一家人、兄弟情。两地虽然远隔千里，但对口支援把我们的心紧紧地连在一起，落实好以习近平同志为核心的党中央交给我们的援青任务，是我们共同的政治责任。三江源被誉为“中华水塔”，以甘甜的乳汁哺育了中华民族。多年来，青海省委、省政府带领全省各族人民为保护良好生态环境和优质水源作出了巨大贡献，天津享受着青海给予的无私支援支持，饮水思源，我们由衷敬佩。特别是面对恶劣自然条件，青海广大干部群众展现出忠于职守的崇高奉献精神值得我们学习。两地人民深情厚谊，如长江之水源远流长。我们将以此为动力，在党中央的坚强领导下，牢固树立“四个意识”，把历届市委、市政府的好传统传承下去，坚决完成好对口援青任务。', '李鸿忠说，当前，天津正深入学习贯彻党的十八届六中全会精神，以“三个着力”为纲，全力推进经济社会发展和全面从严治党各项工作。天津各级各部门将“升级、加力”做好援青工作，坚持“多层全覆盖”“有限无限相结合”思路，动员市级、区级各层面广泛开展对口援助，用好有限的援助资金，不断拓展援青领域，全面推进人才、教育、医疗、民生、产业、市场等援建工作，深化干部群众交流交融，增强当地“造血”功能。希望以代表团来津考察为契机，加强两省市在生态文明建设等领域交流互鉴，互相促进，合作发展。', '王国生在讲话中代表省委省政府和全省各族人民，对天津多年来给予青海的大力帮扶表示衷心的感谢。他说，天津与青海虽然相距遥远，但两地人民有着兄弟般的深厚情谊。2010年中央第五次西藏工作座谈会以来，天津市共投入资金3.9亿元，实施各类项目119个，一批批援青干部发挥优势，牵线搭桥，办成了很多好事。特别是天津把民生援青摆到突出位置，在天津开设黄南高中班、中职班，选派专业医疗服务团开展巡回诊疗，使黄南州各族群众得到了真真切切的实惠。天津的帮助，让高原各族干部群众感受到了中国共产党的坚强有力，感受到了社会主义国家巨大的制度优势，感受到了祖国大家庭的无比温暖。', '王国生说，近年来，天津按照国家赋予的北方经济中心、重要国际港口、生态城市定位，高起点规划，高水平建设，经济发展效益好、质量好，打造了大气美观、特色鲜明的城市品质。我们为天津发展取得的成就感到由衷的高兴和钦佩。当前，青海上下正贯彻落实党的十八届六中全会精神和习近平总书记视察青海时的重要讲话精神，按照“四个扎扎实实”重大要求，持续推进“三区”建设。我们要以党的十八届六中全会精神为指引，紧密团结在以习近平同志为核心的党中央周围，认真学习贯彻习总书记银川会议重要讲话精神，借鉴天津的好思路、好经验、好做法，在生态建设、精准扶贫、产业发展、智力援助等方面加大双方合作力度，继续书写两省市合作交流的新篇章。', '王东峰简要介绍了天津经济社会发展情况。他说，市委、市政府和全市各级各部门深入贯彻习近平总书记系列重要讲话精神特别是对天津工作“三个着力”的重要指示精神，认真落实新发展理念，扎实推进京津冀协同发展战略和创新驱动发展战略，深入实施供给侧结构性改革，稳增长、调结构、促转型，扩大开放，改善民生，各项事业呈现良好发展态势。今年1-9月份，全市生产总值增长9.1%，一般公共预算收入增长11%，固定资产投资增长11.2%，发展的质量效益进一步提高。多年来，天津与青海两地保持了密切的交流合作关系，先后派出3批50名援青干部，对口支援黄南州经济发展和强村富民，天津援青的同志们受到了高原奉献精神的熏陶和激励，学习了宝贵经验，锻炼了队伍，对每一位援青干部来讲是终身受益，对天津来讲也是宝贵的精神财富。要在过去的基础上，深入贯彻中央的决策部署，加大对口援青工作力度，深化两省市交流合作，为全面建成小康社会做出新贡献。', '郝鹏说，党的十八大以来，青海坚持以习总书记系列重要讲话精神为指引，以生态保护优先理念协调推进经济社会发展，呈现总体平稳、稳中有进、结构向好的态势。我们在实践中深刻认识到，做好青海的工作，主观上“不依赖”，但客观上“离不开”，青海的每一点发展进步，都是党中央正确领导的结果，是包括天津在内的兄弟省市大力支持和真诚帮助的结果。当前，青海正处在决胜全面小康的关键时期，我们要深入贯彻落实习总书记视察青海时的重要讲话精神，加快推进青海与天津在经济文化特别是扶贫等方面的协作与合作，努力在建设富裕文明和谐美丽新青海的征程上取得新的成绩。', '会后，两省市领导亲切看望会见天津市第一、二批援青干部和第三批援青干部领队，并同大家合影留念。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>287</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>西宁市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>青海省党政代表团赴重庆学习考察重庆青海经济社会发展工作交流座谈会召开</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2019-04-30</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://www.xining.gov.cn/xwdt/szfxx/201904/t20190430_37836.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['青海省党政代表团赴重庆学习考察重庆青海经济社会发展工作交流座谈会召开_西宁市人民政府', '4月27日至29日，青海省党政代表团在重庆学习考察,28日下午，重庆青海经济社会发展工作交流座谈会召开。中共中央政治局委员、重庆市委书记陈敏尔，青海省委书记、省人大常委会主任王建军，重庆市委副书记、市长唐良智，青海省委副书记、省长刘宁，重庆市人大常委会主任张轩，重庆市政协主席王炯参加。', '陈敏尔代表市委、市政府向青海省党政代表团表示热烈欢迎，对青海长期以来给予重庆发展的关心支持表示感谢。他说，习近平总书记亲临重庆视察指导并发表重要讲话，充分体现了对重庆工作的高度重视和对广大干部群众的亲切关怀。总书记从战略和全局的高度为重庆发展导航定向，赋予重庆新的重大使命，要求重庆在推进新时代西部大开发中发挥支撑作用、在推进共建“一带一路”中发挥带动作用、在推进长江经济带绿色发展中发挥示范作用。全市上下正深入学习贯彻总书记视察重庆重要讲话精神，用心学起来、用情讲出来、用力做起来，注重一体化、一件一件、一级一级抓落实，把总书记重要讲话精神转化为工作思路、具体抓手、发展成果，以实干实绩回报总书记的关怀厚爱。', '陈敏尔说，青海自然资源富集，文化底蕴深厚，区位优势突出，发展潜力巨大。党的十九大以来，青海深入贯彻落实习近平总书记对青海工作的重要指示批示精神，团结一心、艰苦奋斗，各项事业发展迈上新台阶。青海在生态文明建设、脱贫攻坚、特色产业发展、民族团结进步等方面的好经验好做法，值得重庆认真学习借鉴。我们真诚祝贺青海发展取得的显著成绩，衷心祝愿青海的明天更加美好。两省市在服务国家战略中，面临难得机遇、肩负重要责任。希望以此次考察为新的起点，全面加强发展战略协同，深化重大发展规划、重大发展政策、重大工程项目等对接协作，在新时代推进西部大开发形成新格局中展现新作为、实现新突破。携手融入“一带一路”建设，推进基础设施互联互通，加强开放平台合作，提高开放合作水平。加强生态环境保护，共筑长江上游重要生态屏障，让一江碧水向东流。深化产业交流合作，积极拓展在新能源、新材料、大数据智能化、绿色农业、文化旅游等领域务实合作，更好地造福两地人民。', '王建军代表青海省委省政府和全省各族人民，向重庆市对青海工作的支持表示感谢。他说，青海、重庆虽然相距很远，但同属祖国西部地区，同为“一带一路”重要节点，一条长江把两地紧紧连在一起，在天时、地利、人和方面有着很深的缘分。近年来，重庆市上下深学笃用习近平新时代中国特色社会主义思想，全面落实习近平总书记对重庆提出的“两点”定位、“两地”“两高”目标、发挥“三个作用”和营造良好政治生态的重要指示要求，把习近平总书记的殷殷嘱托全面落实在重庆大地上。我们将以见贤思齐之心，取重庆推进西部开发和内陆开放之经，攻坚“两不愁”和“三保障”之经，推动高质量发展和创造高品质生活之经，实施乡村振兴和城市建设之经，统筹生态保护和绿色发展之经。王建军表示，新时代是合作共赢的时代。重庆在装备制造、汽车、电子、大数据、现代服务业、农副产品、节能环保等领域有优势，青海在新能源、新材料、生物医药、高原特色农牧业、文化旅游等方面有潜力。两地产业优势互补，合作空间巨大。期望进一步深化与重庆的产业合作、能源合作、文旅合作，在以习近平同志为核心的党中央坚强领导下，不断开创渝青携手共进、合作发展的新局面。', '座谈中，唐良智和刘宁分别介绍了两省市经济社会发展情况，签署了渝青两地政府《战略合作框架协议》。', '在重庆期间，我省党政代表团还到弹子石老街、重庆市规划展览馆、一带一路·重庆国际物流枢纽、西永微电子产业园、两江新区数字经济产业园、猪八戒网络有限公司等，考察调研历史文化街区保护、内陆开放高地建设、构建现代产业体系、城市建设管理等情况。', '重庆市领导任学峰、吴存荣、王赋、段成刚、潘毅琴，青海省领导王予波、于丛乐、张光荣、王晓勇分别参加上述活动。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>287</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>西宁市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>青海省党政代表团赴江苏学习考察江苏青海对口支援和扶贫协作工作座谈会举行</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2019-11-14</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://www.xining.gov.cn/xwdt/szfxx/201911/t20191114_38429.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['青海省党政代表团赴江苏学习考察 江苏·青海对口支援和扶贫协作 工作座谈会举行_西宁市人民政府', '11月11日至13日，青海省党政代表团在江苏省学习考察，深入贯彻习近平总书记关于推进对口支援和扶贫协作重要指示要求，共商对口支援、扶贫协作和加强合作等事宜。', '12日下午，江苏·青海对口支援和扶贫协作工作座谈会在南京举行。江苏省委书记、省人大常委会主任娄勤俭主持会议并讲话，青海省委书记、省人大常委会主任王建军讲话，江苏省委副书记、省长吴政隆，青海省委副书记、省长刘宁分别介绍两省经济社会发展和帮扶支援情况。', '娄勤俭代表江苏省委、省政府对青海省党政代表团来访表示热烈欢迎。他说，今年8月我们赴青海学习考察，深感青海各方面发展呈现出欣欣向荣的气象，我们不仅看到了一个奋力脱贫的青海，更看到了一个蒸蒸日上发展的青海。苏青一家亲，两省扶贫协作的成果越来越多、合作越来越密、感情越来越深。当前，全国上下正在深入学习贯彻党的十九届四中全会精神，我们要坚持以习近平新时代中国特色社会主义思想为指导，把加强对口支援帮扶、深化两省合作作为贯彻落实四中全会精神的具体行动，把既定的协议、商定的事项扎扎实实地办好办到位，把中央赋予的政治责任坚决落实好。助力脱贫攻坚要进一步聚焦“精准”、聚力“长效”，既坚持以往行之有效的办法，又采取针对性强的措施，切实帮助建档立卡贫困人口实现“两不愁三保障”，完善稳定脱贫长效机制。加强两省合作要进一步拓展思路、拓宽范围，在能源、产业、生态、水资源保护等更多领域，企业、院校、智库、民间团体等更多方面加强合作，让苏青对口扶贫协作和交流合作结出更加丰硕的成果，让两省老百姓的生活越来越美好。', '王建军代表青海省委、省政府和全省人民对江苏省长期以来给予的帮助支持表示感谢。他说，对口支援和扶贫协作，是以习近平同志为核心的党中央推动区域协调发展、协同发展、共同发展的大战略。感恩习近平总书记和党中央对青海的亲切关怀，党中央作出对口援青重大决策，习近平总书记亲自部署东西部扶贫协作工作，援助和帮扶的巨大成就让青海各族群众真切感受到了社会主义制度的无比优越、祖国大家庭的无比温暖。感谢江苏省委、省政府无私援助和真情帮扶，江苏省委、省政府高位推动援助和帮扶工作，在整体规划下向前推进，在完善机制中强化保障，在干部人才上全力支撑，援助条条见效，帮扶件件落地，成效有口皆碑。感念援助和帮扶带来的变化、结出的硕果，援助让青海海南州发生了巨大变化，帮扶让西宁和海东的脱贫结出了硕果。今年青海将实现消除绝对贫困目标，明年全力做好巩固提升工作。我们将以习近平新时代中国特色社会主义思想为指导，认真贯彻党的十九届四中全会精神，全面落实对口援青和扶贫协作战略，充满信心、坚定决心高质量打好打赢脱贫攻坚战。', '在江苏期间，我省党政代表团考察了无锡药明生物技术股份有限公司、锡柴重型柴油机惠山基地、国家超级计算无锡中心等。', '江苏省领导樊金龙、张敬华、郭元强、李小敏，青海省领导李杰翔、严金海、鸟成云参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>287</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>西宁市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>青海省党政代表团赴上海学习考察沪青对口支援合作座谈会在上海市举行</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2016-10-14</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://www.xining.gov.cn/xwdt/tttj/201610/t20161014_23534.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['为深入贯彻习近平总书记系列重要讲话精神和视察青海时重要讲话精神，树立和践行新发展理念，深化沪青对口帮扶，10月12日至13日，青海省党政代表团赴上海学习考察。', '13日上午，沪青对口支援合作座谈会在上海市举行。中央政治局委员、上海市委书记韩正主持会议并作重要讲话，青海省委书记王国生讲话。上海市委副书记、市长杨雄，青海省委副书记、省长郝鹏分别介绍两省市经济社会发展情况。', '韩正代表市委、市政府和上海人民感谢青海长期以来对上海发展的支持，以及对上海援青干部无微不至的关心爱护。他说，青海是三江之源,上海是长江的入海口，一条长江把两地紧密联系在一起。党中央确定上海对口支援青海果洛，先后三批援青干部扎根当地，使沪青两地亲上加亲。上海正深入贯彻落实习近平总书记在中央扶贫开发工作会议、东西部扶贫协作座谈会上的重要讲话精神，将按照中央的决策部署，根据青海省委、省政府关于对口支援的要求，结合果洛当地实际，积极落实青海关于扶贫、教育卫生、三江源共同保护、智力支援等方面的意见建议，进一步深化两地合作交流，为打赢脱贫攻坚战作出更大贡献。', '韩正说，青海的同志在艰苦的环境中为边疆建设、国家发展和小康社会建设作贡献，上海各级干部要学习你们的良好作风和奉献精神。上海两批援青干部在果洛经受了磨砺、得到了锻炼，为果洛发展、为两地友谊作出了积极贡献，这份人生历练将终身受益。希望援青干部不忘“第二故乡”，继续关心果洛发展，同时把这份宝贵的精神财富带到上海的工作岗位上。已经开始工作的第三批援青干部要接续努力，全力以赴把各项对口支援工作落到实处。', '韩正说，上海的发展，是党中央坚强领导、全国人民无私支持、上海人民奋斗拼搏的结果。站在新的起点，上海要紧紧立足国家战略，始终把自身发展放在中央对上海发展的战略要求上、放在全国发展大格局中、放在当今世界经济全球化的大趋势下谋划发展，更好地贯彻落实国家战略，服务好实施好“一带一路”、长江经济带战略和长三角一体化发展，在围绕国家战略发展中更好地提升城市综合竞争力，努力当好全国改革开放排头兵、创新发展先行者，为国家发展作出更大贡献。', '王国生在讲话中首先代表省委省政府和全省588万各族人民，对上海市给予青海省的大力支持和无私帮助表示衷心的感谢。他说，青海、上海共饮一江水，两地友谊源远流长。中央确定上海对口支援我省果洛藏族自治州的6年来，上海共落实对口支援资金11.96亿元，对口支援项目320个，培训各类人员近4000人次。援青干部是上海对口援青工作的实践者、亲历者，更是沪青友谊的传承者、见证者。第一、第二批上海援青干部带着深厚的感情，不远千里来到青海果洛接力帮扶，办成了很多实事、好事，他们勇于担当、不畏艰险、无私奉献的奋斗精神和拼搏劲头，深得青海干部群众赞誉。6年的援青，成为果洛州经济发展速度最快、民生福祉改善最多、城乡面貌变化最大、群众收入增长最明显的历史时期，三江源头的青海各族同胞真切感受到了上海人民兄弟般的情谊。实践证明，党中央作出的对口援青决策是完全正确的。青海人民永远感念上海人民的深情厚谊。', '王国生说，当前，青海上下正全面贯彻习近平总书记视察青海时的重要讲话精神，以生态保护优先理念协调推进经济社会发展，持续推进“三区”建设，把“四个扎扎实实”重大要求落实到实际工作中，全力建设富裕文明和谐美丽新青海。我们要认真学习贯彻习总书记银川会议重要讲话精神，用好上海援青的重要机遇，聚焦推进精准扶贫，加强三江源生态保护协作，强化人才和智力援青，推动产业深度合作，开创两省市合作交流的新篇章。', '座谈会上，杨雄和郝鹏分别介绍了上海、青海经济社会发展情况和沪青对口帮扶进展，并就更好推进对口援青工作、加强沪青合作交流提出建议。', '会后，沪青两地领导亲切看望会见上海市第一、二批援青干部和第三批援青干部代表，并同大家合影留念。', '上海市领导殷一璀、吴志明、尹弘、时光辉,青海省领导张建民、王晓、王予波、杨逢春参加上述活动。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>287</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>西宁市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>我省党政代表团在江苏学习考察</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2016-10-16</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://www.xining.gov.cn/xwdt/tttj/201610/t20161016_23529.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['2011年以来，南京市江宁高级中学承担江苏教育援青项目，开办青海海南民族班，学生们高考成绩喜人。王国生、郝鹏参观校史馆，走进阅览室，与“海南民族班”的老师和学生们亲切交谈，详细了解大家的工作学习情况。王国生与同学们亲切互动：“青海好还是江苏好？”同学们说：“江苏好，家乡更好！”王国生又问：“学习生活还适应吗？大家有什么收获？”来自贵南的高三学生张巍回答：“在学校和老师们的关心关爱下，我们各方面进步很大，对未来都充满信心。”王国生十分欣慰，代表省委、省政府感谢学校和老师们辛勤付出。希望孩子们珍惜机会、安心学习、多长本事,将来建设家乡、报效祖国。', '紫金悠谷科创社区是南京市科技服务业集聚示范区。王国生、郝鹏走进悠谷创新孵化器平台、南京增材制造（3D打印机）研究院等项目和企业，看产品、问工艺，询问市场营销情况，称赞社区创新创造创业氛围浓厚、企业发展势头强劲。埃斯顿自动化股份有限公司坚持自主创新、着力打造品牌，成为中国工业机器人行业的领军企业。王国生、郝鹏仔细参观自动化智能装备核心功能部件、工业机器人及智能制造系统，详细了解企业生产研发、市场应用等情况。他们指出，要加强学习借鉴，积极寻找青海发展与科技大势、科技创新与发展优势的结合点，加快创新型青海建设。', '苏宁控股集团公司在我国互联网零售等领域处于领先地位。王国生、郝鹏详细了解公司物流云、大数据、云计算、O2O等运营情况，并通过云商运营直播间，察看了解电商业务发展情况, 对苏宁公司创新发展表示赞赏，希望双方今后加强合作，让“互联网+”助力青海特色商品走向大市场，催生出更多的新产业、新业态、新模式。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>287</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>西宁市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>西宁市代表团赴南京学习考察</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2019-11-15</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://www.xining.gov.cn/xwdt/xnyw/201911/t20191115_27375.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['11月12日至14日，受省委常委、西宁市委书记王晓委托，西宁市委副书记、市长张晓容率西宁市代表团赴南京开展交流考察活动。11月13日，南京市委副书记、代市长韩立明会见张晓容一行。当日还召开了南京西宁对口扶贫协作工作座谈会，共商两地对口支援、扶贫协作和加强合作等事宜，推动“双宁记”升级版结出新硕果。西宁市委副书记、市长张晓容，南京市委常委、常务副市长杨学鹏出席会议并讲话。西宁市副市长陈红兵参加考察活动。', '韩立明代表南京市委市政府对西宁市代表团来访表示热烈欢迎。她说，做好东西部扶贫协作工作是党中央和习近平总书记交给我们的重要政治任务，使命光荣、责任重大。南京和西宁虽相隔千山万水，但“苏青一家亲”的深厚情谊、“携手奔小康”的共同目标把我们连在一起。当前，全国上下正在深入学习贯彻党的十九届四中全会精神，我们要坚持以习近平新时代中国特色社会主义思想为指引，把继续深化南京西宁东西部扶贫协作作为贯彻落实党的十九届四中全会精神的具体行动，尽好政治责任，发挥南京优势，把既定的协议、商定的事项落实好，支持帮助西宁全面打赢脱贫攻坚战，圆满完成各项目标任务，交上一份党和人民满意的答卷。', '张晓容代表西宁市委市政府和全市各族人民群众对南京市长期以来给予西宁市的支持帮助表示衷心感谢和崇高敬意，对南京市经济社会发展取得的突出成绩表示由衷祝贺，并转达了省委常委、西宁市委书记王晓对江苏省委常委、南京市委书记张敬华，南京市委副书记、代市长韩立明以及南京市干部群众的问候和谢意。张晓容说，对口帮扶工作开展以来，南京市委、市政府深入贯彻习近平总书记关于扶贫工作特别是东西部扶贫协作的重要论述，高度重视扶贫协作工作，对口帮扶的雨花台、栖霞、六合区委区政府及党政部门坚决扛起东西部扶贫协作的政治责任，开展深层次、多领域的帮扶，用真心真情真金白银助力了西宁脱贫攻坚，让贫困群众真切感受到了社会主义制度的无比优越、祖国大家庭的无比温暖。南京在西宁挂职干部在工作中彰显出求真务实、真抓实干的作风，为西宁广大干部做出表率。西宁将饮水思源、感恩奋进，倍加珍惜南京支援帮扶西宁的大好机遇，认真学习借鉴南京的先进经验，努力做好西宁工作，以实际行动回报南京人民的无私帮助和倾力支持。', '在座谈会上，张晓容指出，在各方共同努力下，西宁三县今年成功实现脱贫“摘帽”。西宁市将围绕做好三县脱贫攻坚后续巩固提升工作，紧扣“两不愁三保障”，紧抓东西部扶贫协作这一宝贵平台，借助南京资金技术人才优势，坚决夺取决战脱贫攻坚、决胜同步小康的全面胜利。一是实施好帮扶项目。重点围绕加强产业扶贫、农村公共服务领域设施建设等，实施一批带动能力强、发展效应好的帮扶项目，进一步巩固脱贫攻坚成果。二是加大产业协作力度。推动两地扶贫协作和交流合作从南京单向扶贫向双向互动、互利共赢转变。三是加大规划编制指导。希望南京对西宁“十四五”规划编制在人才、智力、技术等方面给予支持和帮助，并对三县及相关部门专项规划编制予以指导。', '杨学鹏指出，南京将按照“摘帽不摘责任、摘帽不摘政策、摘帽不摘帮扶、摘帽不摘监管”的要求，扎扎实实做好后续帮扶、巩固提升等工作。一是紧扣目标，持续巩固脱贫攻坚成果成效，奋力决胜全面建成小康社会。二是突出重点，发挥南京人才、技术、资金等方面优势，推动产业合作不断深入、开花结果。三是务求实效，狠抓重点项目建设，保质保量完成，早日发挥效应。四是以民为本，加强优质公共服务体系建设，让西宁人民更多更好地享受民生福祉。', '13日上午，张晓容、陈红兵还看望慰问了8名在南京挂职的干部，与他们座谈交流，认真听取他们的收获、体会和建议。张晓容对挂职干部的工作给予了充分肯定，并从珍惜机会、虚心学习，担当实干、增强本领，广交朋友、当好纽带，学以致用、提升工作等方面对挂职干部提出了要求。', '考察期间，在杨学鹏陪同下，西宁市代表团实地考察了南京城市建设展览馆。南京市委市政府相关部门及栖霞区、雨花台区、六合区主要负责同志，西宁市委市政府相关部门及大通县、湟中县、湟源县相关负责同志参加上述活动。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>287</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>西宁市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>王晓率队赴银川学习考察</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2016-08-06</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://www.xining.gov.cn/xwdt/tttj/201608/t20160806_22777.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['●王晓赴银川考察扶贫开发、城市规划建设、行政审批制度改革等工作 ●希望双方在融入一带一路建设等方面实现优势互补共赢发展', '8月3日至4日，省委常委、市委书记王晓率队赴银川学习考察东西部扶贫协作、城市规划建设、行政审批制度改革等工作。市领导张永海、何灿及相关部门负责同志陪同考察。', '在闽宁镇原隆村，王晓一行先后考察了民生服务大厅、卫生计生服务站、闽宁农业创客空间、农村电商服务站和光伏农业大棚、肉牛养殖基地等产业扶贫项目，详细了解闽宁扶贫协作、移民技术培训等情况，认真学习当地在扶贫开发特别是闽宁扶贫协作方面的好经验好做法，并衷心祝愿当地群众生活越来越幸福。', '王晓一行还实地考察了银川市火车站、城市规划展示馆、市民大厅、阅海湾商务区、中阿之轴、中阿博览会会址、览山剧场、绿博园以及市容市貌，认真学习了解银川城市规划建设的思路、措施和经验，并与银川市相关领导及部门负责同志进行了深入交流。王晓说，银川市在城市规划建设管理，特别在城市整体规划设计、水系布局、园林绿化等方面特色鲜明、亮点纷呈，在打造城市宜居宜业环境方面作了很多积极探索，增强了城市的集聚辐射和带动功能，提升了城市形象和品位，值得西宁学习借鉴。王晓希望双方在融入“一带一路”建设等方面加强交流合作，实现优势互补、共赢发展。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>287</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>西宁市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>青海省党政代表团赴新疆学习考察</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2019-04-23</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://www.xining.gov.cn/xwdt/tttj/201904/t20190423_32620.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['4月21日至22日，青海省党政代表团在新疆学习考察并召开工作座谈会。中共中央政治局委员、新疆维吾尔自治区党委书记陈全国，青海省委书记、省人大常委会主任王建军，新疆维吾尔自治区党委副书记、自治区主席雪克来提·扎克尔，青海省委副书记、省长刘宁，新疆维吾尔自治区人大常委会主任肖开提·依明，新疆维吾尔自治区政协主席努尔兰·阿不都满金参加。', '陈全国代表自治区党委和政府及全区各族人民对青海省党政代表团表示热烈欢迎，对青海省长期以来给予新疆的关心支持表示衷心的感谢。陈全国说，在以习近平同志为核心的党中央坚强领导下，青海省委和省政府及全省广大干部群众，深入贯彻习近平新时代中国特色社会主义思想，贯彻落实习近平总书记关于青海工作的重要指示精神，深入实施“五四战略”，奋力推进“一优两高”，大力弘扬新青海精神，经济社会发展持续迸发活力，在建设富裕文明和谐美丽新青海的征程上迈出了坚实步伐。我们表示由衷的祝贺。', '陈全国指出，新疆和青海相邻为伴，两省区往来密切、情缘深厚，具有良好的合作传统、多方面的相似性、共同的发展需求和机遇，为我们进一步加强交流合作、实现共同进步奠定了坚实基础、提供了广阔空间。希望两省区牢牢把握“一带一路”建设、西部大开发的战略机遇，进一步加强交流、深化合作，互利共赢、携手发展。陈全国说，新疆将进一步增强“四个意识”，坚定“四个自信”，做到“两个维护”，坚持以习近平新时代中国特色社会主义思想为指导，贯彻落实以习近平同志为核心的党中央治疆方略特别是社会稳定和长治久安总目标，扎实推进稳定发展各项工作，以优异成绩庆祝中华人民共和国成立70周年。', '王建军代表青海省委省政府和全省各族人民，向新疆维吾尔自治区长期以来对青海工作的支持表示感谢。他说，新疆和青海地理相邻、山水相连、道路相通、发展相近、人文相亲、使命相同，自古以来就是好邻居、好伙伴。新疆维吾尔自治区党委、政府以高度的政治自觉和责任担当，坚决贯彻落实习近平总书记提出的建设中国特色社会主义新疆的重大要求和党中央治疆方略，按照“1+3+3+改革开放”工作部署，聚焦总目标，把握总基调，开创了各项工作新局面。我们为新疆取得的巨大成就感到欢欣鼓舞，新疆创造的维护社会稳定的好举措、脱贫攻坚的好做法、促进民族团结进步的好经验、保护生态的好对策、推进重点工作的好思路值得青海认真学习借鉴。王建军说，事业和缘分把我们连在一起，使命和责任让我们越走越近。长期以来，新青两地相互支持、互通有无，共同维护稳定、推动往来、构筑交通、建立机制，谱写了合作交流的新篇章。我们期望在“一带一路”建设、产业发展、社会治理、能源领域等方面深化务实合作交流，把新青两地更加紧密地联系在一起，在以习近平同志为核心的党中央坚强领导下，不断开创新青社会稳定、长治久安、科学发展、人民幸福的新局面。', '在新疆期间，我省党政代表团考察了乌鲁木齐市天山区二道桥片区管委会固原巷社区、新疆国际大巴扎、新疆智能机械产业园等。', '新疆维吾尔自治区领导李鹏新、沙尔哈提·阿汗、张春林，青海省领导王晓、王予波、于丛乐、刘同德、王晓勇分别参加上述活动。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>287</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>西宁市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>我省党政代表团赴浙江学习考察</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2016-10-17</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://www.xining.gov.cn/xwdt/tttj/201610/t20161017_23598.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['会见中，夏宝龙对青海省党政代表团来浙考察表示欢迎，对青海给予浙江援青干部的关心爱护表示感谢。他说，浙江与青海虽然山水相隔、路途遥远，但两省人民有着兄弟般的深厚情谊。特别是2010年建立对口支援关系以来，两省领导互访频繁，交流合作持续推进，兄弟情谊不断加深。青海地处青藏高原，是我国国家安全、生态安全的重要屏障，战略地位十分重要，人文资源和地理资源十分丰富。近年来，青海坚持以生态保护优先理念协调推进经济社会发展，取得了令人瞩目的成就，让我们由衷钦佩。特别是青海干部群众在工作中形成的抢抓丝绸之路经济带重要机遇、发扬青藏高原精神等好做法好经验，非常值得我们学习借鉴。浙青两省合作交流历史久远、基础扎实。两省具有不同的区位优势、资源禀赋、产业特色，经济互补性很强。“一带一路”倡议把两省更加紧密地连接在一起，为双方加强交流合作创造了难得机遇。我们将按照习近平总书记关于扶贫攻坚和对口支援工作的要求，一如既往地支持海西州的发展，进一步健全交流合作机制，扩大交流合作成果，为海西同步全面建成小康社会作出积极贡献。', '王国生对浙江省多年来对青海经济社会发展的无私帮助表示感谢。他说，浙青两省的交流交往由来已久。2010年中央第五次西藏工作座谈会以来，浙江省共安排援青资金8.48亿元，实施援青项目221个，特别是浙江援青干部克服困难、扎根奉献、接力帮扶，将浙江先进的理念、文化、技术带到青海，为海西州的发展做出了突出贡献，使海西蒙古族藏族自治州各族群众得到了真真切切的实惠。实践证明，党中央作出对口援青决策是完全正确的。', '王国生说，近年来，浙江树立和践行新发展理念，经济社会快速持续健康发展，已成为全国经济最发达、最具活力的地区之一，为全国树立了榜样、提供了经验。当前，青海上下正深入贯彻习近平总书记视察青海时重要讲话精神，以生态保护优先理念协调推进经济社会发展。我们要认真贯彻习总书记银川会议重要讲话精神，借鉴浙江的好思路、好经验、好做法，在生态建设、精准扶贫、产业发展、智力援助、互联网+等方面加大双方合作力度，推动对口援青迈上新台阶，努力在全国东西部协作发展方面走在前列。', '车俊和郝鹏分别介绍了两省经济社会发展情况和浙青对口帮扶进展，并就更好推进对口援青工作、加强合作交流提出建议。', '期间,省领导亲切看望浙江省第一、二批援青干部和第三批援青干部领队，并同大家合影留念。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>287</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>西宁市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>青海省党政代表团在山东学习考察山东青海召开对口支援工作座谈会刘家义主持并讲话王建军讲话龚正刘宁介绍两省经济社会发展及对口援青工作情况</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2018-08-21</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://www.xining.gov.cn/xwdt/szfxx/201808/t20180821_36977.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['青海省党政代表团在山东学习考察 山东青海召开对口支援工作座谈会 刘家义主持并讲话 王建军讲话 龚正刘宁介绍两省经济社会发展及对口援青工作情况_西宁市人民政府', '青海省党政代表团在山东学习考察 山东青海召开对口支援工作座谈会 刘家义主持并讲话 王建军讲话 龚正刘宁介绍两省经济社会发展及对口援青工作情况', '8月20日，青海省党政代表团在山东学习考察。上午，山东青海召开对口支援工作座谈会。山东省委书记、省人大常委会主任刘家义主持并讲话，青海省委书记王建军讲话。山东省委副书记、省长龚正，青海省委副书记、代省长刘宁介绍两省经济社会发展及对口援青工作情况。', '刘家义代表山东省委省政府对青海省党政代表团来鲁考察表示欢迎，对青海省长期以来给予山东的支持关心表示感谢，对青海省经济社会发展取得的巨大成就表示钦佩。他说，当前，山东正深入贯彻习近平总书记对山东工作一系列重要讲话和重要指示精神，牢牢把握走在前列的目标定位，坚定践行新发展理念，加快新旧动能转换，打造乡村振兴齐鲁样板，大力发展海洋经济，进一步深化改革扩大开放，坚决打好三大攻坚战，努力推动高质量发展，坚定不移推进全面从严治党，努力将总书记重要指示要求转化为齐鲁大地的生动实践。习近平总书记和党中央把对口援青的部分任务交给山东，是我们的无上荣光，也是我们的分内之事、应尽之责。我们要牢固树立"四个意识"，坚决做到"两个维护"，坚定不移贯彻落实习近平总书记关于对口支援重要指示精神,牢牢扛起对口援青重大政治责任，不折不扣地做好援青各项工作。山东将在教育、健康、文旅、生态以及产业发展等领域深化与青海省的合作，不断创新援青方式方法,加大组团式援助力度,实现优势互补，推动双方交流合作和对口支援工作不断迈上新台阶，更好地造福两省人民。', '王建军代表省委省政府和全省各族人民对山东省长期以来给予青海的帮助支持表示衷心感谢。他说，党中央确定山东对口支援青海省海北州，是习近平总书记和党中央对青海的亲切关怀，对青海各族群众的亲切关怀。山东省委省政府站在党和国家战略全局的高度，把海北州作为山东的第18个市，全方位、宽领域、多层次开展援青工作，藏区群众在对口支援中有了满满的获得感。山东籍援青干部视援青为己任，把青海当家乡，帮助藏区办成了一批好事实事，助力了新青海建设。他说，青海的每一点发展进步，都是习近平总书记和党中央正确领导的结果，都是包括山东在内的兄弟省市支持帮助的结果。习近平总书记提出的"两个走在前列""四个扎实"重要要求，既是对山东工作的要求，也是对青海的要求，我们要结合青海实际学习好贯彻好落实好。我们将倍加珍惜党中央对口援青的政策机遇，倍加珍惜山东对青海的每一项援助，倍加珍惜在山东学习取经的机会，进一步加深鲁青两省交流，加快推动"一优两高"战略部署，努力实现"一个同步、四个更加"奋斗目标，向以习近平同志为核心的党中央交上一份满意的答卷，回报山东省委省政府和山东人民。', '期间，青海省党政代表团考察了济南市章丘区三涧溪村、浪潮集团高端容错计算机生产基地、国家超级计算济南中心。', '山东省领导付志方、杨东奇、王清宪、于晓明、王书坚，青海省领导多杰热旦、王予波、于丛乐、马伟、尼玛卓玛参加座谈会。 (罗藏)']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>287</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>西宁市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>共建两地一体化发展新格局同谱携手高质量发展新篇章西宁市党政代表团赴海东市学习考察</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://www.xining.gov.cn/xwdt/xnyw/202309/t20230901_191646.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['共建两地一体化发展新格局同谱携手高质量发展新篇章 ——西宁市党政代表团赴海东市学习考察_西宁市人民政府', '共建两地一体化发展新格局同谱携手高质量发展新篇章 ——西宁市党政代表团赴海东市学习考察', '8月31日，省委常委、市委书记王卫东，市委副书记、市长石建平带领西宁市党政代表团赴海东市考察，实地学习海东市生态环境保护治理、产业发展、城市规划管理、河湟文化保护传承等工作理念和创新经验，并召开两市工作座谈会，进一步贯彻落实省委省政府部署要求，共推西宁海东一体化发展。省委常委、海东市委书记乌拉孜别克·热苏力汗，海东市委副书记、市长王华杰陪同考察并出席座谈会。', '在座谈会上，王卫东代表西宁市委、市政府对海东市长期以来对西宁经济社会发展的关心支持表示感谢。他说，推动西宁海东一体化发展，是省委省政府交给两市共同政治任务，责任重大、意义重大。我们要认真学习贯彻党的二十大精神和习近平总书记对青海工作重大要求，全面贯彻落实省委十四届四次全会精神，以中国式现代化道路引领西宁海东一体化发展。希望在共同谋划两地更深层次合作、促进一体化发展利益共享上下功夫，立足各自城市功能定位，找准双方利益契合点，探索一体化发展利益分享机制，形成区域协调高质量发展新格局。希望在寻求一体化发展合作空间、事项突破上下功夫，积极与省级规划部门加强衔接，优化交界地区融合发展空间布局，探索相邻园区联动发展模式;围绕绿色有机农畜产品输出地中心城市建设，聚焦打造高原绿色有机农畜产品集散、交易、研发中心及特色农产品规模化种植等重点事项寻找合作结合点、突破点，发挥优势，形成品牌。希望在共谋项目争取一体化发展支持支撑上下功夫，牢牢把握兰西城市群国家战略和西宁海东一体化发展重大机遇，紧盯国家和省级政策导向，聚焦湟水河流域生态环境保护治理、农业面源污染源头防控等重点领域，积极主动争取政策资金支持，助力一体化发展高质量推进。', '乌拉孜别克·热苏力汗对西宁市党政考察团的到来表示欢迎。他说，西宁与海东是唇齿相依的好邻居、好伙伴，近年来双方在文化交流、产业互促、生态保护、民生保障等各个领域精诚团结、同心同向，结下了并肩奋进、风雨同舟的深厚情谊。希望双方进一步深化友谊、密切合作，在融入大局上同心同德，在整合资源上同频共振，在打响品牌上同舟共济，共享“一带一路”、黄河流域生态保护和高质量发展、兰西城市群建设等战略机遇，共担服务和融入新发展格局的时代使命，推动双方在招商引资、园区建设、产业发展、文旅融合等方面结出更加丰硕的成果。进一步互促互助、共同进步，海东将认真学习西宁在推动经济社会高质量发展中的好经验、好做法，找准差距不足、明晰追赶方向、补齐短板弱项，不断提升现代化新海东建设水平。同时，立足西宁所需、发挥海东所能，主动强化对接，努力推动建起双方共同进步的桥梁。进一步加强协作、一体发展，聚焦交通互联、污染治理、产业协同、文化旅游、公共服务等重点领域合力攻坚，不断推进西宁—海东都市圈一体化发展走深走实。海东将在主动融入、密切协同、项目引领、探索创新上下功夫、见成效，为打造更具实力、更具活力、更具引领力的一体化都市圈贡献海东力量。', '考察期间，西宁市党政代表团一行先后深入民和县禹王峡、喇家国家考古遗址公园、三河六岸湿地、中钛青锻装备制造有限公司、寿乐镇冷凉蔬菜基地进行实地考察。', '石建平、王华杰分别介绍了两市经济社会发展及推进西宁海东一体化工作情况。西宁市领导张爱红、李小牛、刘波、南海晏、王刚、韩兴斌、贾栋，海东市领导马锐、马化伟、袁林、张忠良、强建海参加。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>287</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>西宁市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>深交流互学习促改革广西壮族自治区柳州市政府来我市考察学习医改工作</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2018-05-16</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>https://www.xining.gov.cn/zjxn/xnms/ylgg/202012/t20201217_148594.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['深交流 互学习 促改革 ——广西壮族自治区柳州市政府来我市考察学习医改工作_西宁市人民政府', '5月15日，广西壮族自治区柳州市卢柳屏副市长一行10人来我市调研学习医改工作，市卫生计生委、市人社局、市财政局、城西区政府、城中区政府相关领导陪同考察。', '考察团一行于15日上午前往西宁市第一医疗集团总院实地考察，并召开座谈会听取了相关医改工作的介绍，并就柳州市在推进改革中急需解决的分级诊疗体系建设、现代医院管理制度建设、医疗服务价格调整等公立医院重点改革进行了深入的探讨和交流。', '下午，考察团分别到虎台社区卫生服务中心、沈家寨卫生院实地考察，查看我市基层医疗卫生机构的医疗保障制度建设、医疗卫生服务体系建设、医养结合工作、“3+1+N”家庭医生签约服务工作，对我市深化医药卫生体制改革给予了高度评价，认为我市医改工作有特色、成效显。', '最后，卢柳屏表示，柳州市将以这次考察学习为契机，结合柳州市实际情况，通过借鉴我市综合医改的好经验好方法，促进柳州市医疗卫生体制改革工作扎实有序的进行，希望两市加强沟通与交流，互相学习改革经验和有效做法，努力实现医疗事业得发展、人民群众得实惠、医务人员受鼓舞的多赢局面。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>287</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>西宁市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>青海省党政代表团赴天津学习考察津青对口支援工作座谈会在天津市举行李鸿忠主持并讲话王建军讲话张国清刘宁介绍两省市经济社会发展及援青工作情况并签署两省市人民政府战略合作协议</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2018-08-19</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>https://www.xining.gov.cn/xwdt/szfxx/201808/t20180819_36937.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['青海省党政代表团赴天津学习考察 津青对口支援工作座谈会在天津市举行 李鸿忠主持并讲话 王建军讲话 张国清刘宁介绍两省市经济社会发展及援青工作情况并签署两省市人民政府战略合作协议_西宁市人民政府', '青海省党政代表团赴天津学习考察 津青对口支援工作座谈会在天津市举行 李鸿忠主持并讲话 王建军讲话 张国清刘宁介绍两省市经济社会发展及援青工作情况并签署两省市人民政府战略合作协议', '8月17日至18日，青海省党政代表团在天津学习考察。17日下午，天津青海召开对口支援工作座谈会。中共中央政治局委员、天津市委书记李鸿忠主持会议并讲话，青海省委书记王建军讲话。天津市委副书记、市长张国清，青海省委副书记、代省长刘宁介绍两省市经济社会发展及援青工作情况，并签署两省市人民政府战略合作协议。', '李鸿忠代表天津市委、市政府和全市人民对青海省党政代表团表示热烈欢迎。他在讲话中说，此次青海省党政代表团来津考察指导工作，共谋合作大计，是落实党中央决策部署和习近平总书记重要讲话精神的具体行动。去年8月，我和市党政代表团的同志们赴青海考察学习期间，切身感受到青海各级干部政治站位高、"四个意识"强，在保护生态环境、促进民族团结、推动脱贫攻坚等方面工作力度大、效果实，特别是各族干部群众在高寒缺氧的环境中展现出的"新青海精神"令人由衷钦佩。对口支援黄南州是党中央赋予天津的重大政治任务，是我们的分内之事、应尽之责。天津将深入贯彻落实习近平新时代中国特色社会主义思想和党的十九大精神，全力以赴扎实推进援青工作。一是增强"一盘棋"思想，把援青工作纳入天津发展全局，强化规划对接，共享平台资源。二是升级加力、精准发力，加强教育、卫生、农业等领域协作，聚焦民生，精准"滴灌"。三是坚持"有限无限相结合"，做大"有限"、扩大"无限"，用好有限的财政资金，以对青海各族人民的无限感情，动员全市各方面力量，发挥智力资源、科技研发等优势，深化各领域交流，促进各民族情感交融。四是注重"造血""授渔"，大力发展产业，加强职业技术培训，增强当地发展后劲。五是充分发挥援青干部作用，激励锤炼过硬本领，切实为受援地区群众增进福祉。', '王建军代表青海省委省政府和全省各族人民，对天津市多年来给予青海的无私援助表示衷心感谢。他说，实施对口援青战略是习近平总书记和党中央对青海的特殊关怀，对青海各族群众的关心厚爱。天津市委市政府坚决贯彻落实习近平总书记对口支援、对口帮扶重大要求，以高度的政治自觉和强烈的政治担当，切实担负起党中央赋予的政治职责，形成了以干部人才为龙头，以资金援助、物资捐助为重点，以项目建设、经贸合作为载体，以交流交融、共同发展为目标的援青工作新格局，让藏区群众得到了真正的实惠，助力了新青海建设。天津市援青干部人才以过硬的素质、扎实的作风、优异的成绩，赢得了青海各族干部群众的充分认可和高度赞誉。他说，近年来，天津市认真贯彻习近平总书记"三个着力"重要要求，在构建现代化经济体系、推动高质量发展、深化改革开放和生态文明建设等方面，给了我们许多启示。我们将倍加珍惜这次学习机会，力争把天津先进的思路理念、经验做法、发展模式的"真经"取回去，借机借势借力办好青海的事情，加快推动青海的发展，以新青海建设的新业绩，回报习近平总书记和党中央的殷切期望，回报天津市和天津人民的深情厚谊。', '在津期间，我省党政代表团考察了海河综合治理改造工程、中国(天津)职业技能公共实训中心、天津港太平洋国际集装箱码头、天津飞腾信息技术有限公司、天津麒麟信息技术有限公司等。', '天津市领导段春华、盛茂林、张玉卓、李毅、李树起，青海省领导多杰热旦、王予波、于丛乐、马伟参加上述活动。 （罗藏）']</t>
         </is>
